--- a/backend/reports/projet_e8fd5f91-375a-47d4-9b8b-df3ab4bf3130.xlsx
+++ b/backend/reports/projet_e8fd5f91-375a-47d4-9b8b-df3ab4bf3130.xlsx
@@ -508,7 +508,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>251000</v>
+        <v>250997</v>
       </c>
       <c r="B2" t="n">
         <v>51000</v>
@@ -518,22 +518,22 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>6.36%</t>
+          <t>13.62%</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2.85%</t>
+          <t>9.75%</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>-42.59%</t>
+          <t>-8.52%</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>-269.71%</t>
+          <t>1058.45%</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -542,24 +542,22 @@
         </is>
       </c>
       <c r="I2" t="n">
-        <v>647466.5441144764</v>
+        <v>1386965.832713796</v>
       </c>
       <c r="J2" t="n">
-        <v>285276.335211453</v>
+        <v>322251.299641419</v>
       </c>
       <c r="K2" t="n">
-        <v>15960</v>
+        <v>34188.6</v>
       </c>
       <c r="L2" t="n">
-        <v>-137553.6908520908</v>
+        <v>539811.6194183681</v>
       </c>
       <c r="M2" t="n">
-        <v>-137553.6908520908</v>
-      </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>&gt;30</t>
-        </is>
+        <v>539811.6194183681</v>
+      </c>
+      <c r="N2" t="n">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -718,55 +716,55 @@
         <v>2024</v>
       </c>
       <c r="B2" t="n">
-        <v>15960</v>
+        <v>34188.6</v>
       </c>
       <c r="C2" t="n">
-        <v>1320</v>
+        <v>2520</v>
       </c>
       <c r="D2" t="n">
-        <v>8798</v>
+        <v>9709.43</v>
       </c>
       <c r="E2" t="n">
-        <v>20451.04258532855</v>
+        <v>20391.04258532855</v>
       </c>
       <c r="F2" t="n">
-        <v>8433.333333333332</v>
+        <v>8433.033333333333</v>
       </c>
       <c r="G2" t="n">
-        <v>-21722.37591866188</v>
+        <v>-4344.905918661887</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>-21722.37591866188</v>
+        <v>-4344.905918661887</v>
       </c>
       <c r="J2" t="n">
-        <v>-15278.51948177621</v>
+        <v>3298.650518223783</v>
       </c>
       <c r="K2" t="n">
         <v>3309.476896447663</v>
       </c>
       <c r="L2" t="n">
-        <v>-66278.51948177621</v>
+        <v>-47701.34948177622</v>
       </c>
       <c r="M2" t="n">
-        <v>-66278.51948177621</v>
+        <v>-47701.34948177622</v>
       </c>
       <c r="N2" t="n">
         <v>23160.51948177621</v>
       </c>
       <c r="O2" t="n">
-        <v>251000</v>
+        <v>250997</v>
       </c>
       <c r="P2" t="n">
-        <v>8433.333333333332</v>
+        <v>8433.033333333333</v>
       </c>
       <c r="Q2" t="n">
-        <v>242566.6666666667</v>
+        <v>242563.9666666667</v>
       </c>
       <c r="R2" t="n">
-        <v>-20402.37591866191</v>
+        <v>-1827.905918661912</v>
       </c>
       <c r="S2" t="n">
         <v>196690.5231035524</v>
@@ -784,10 +782,10 @@
         <v>300</v>
       </c>
       <c r="X2" t="n">
-        <v>399</v>
+        <v>854.715</v>
       </c>
       <c r="Y2" t="n">
-        <v>399</v>
+        <v>854.715</v>
       </c>
       <c r="Z2" t="n">
         <v>0</v>
@@ -798,55 +796,55 @@
         <v>2025</v>
       </c>
       <c r="B3" t="n">
-        <v>16279.2</v>
+        <v>34872.372</v>
       </c>
       <c r="C3" t="n">
-        <v>1346.4</v>
+        <v>2570.4</v>
       </c>
       <c r="D3" t="n">
-        <v>5913.959999999999</v>
+        <v>6843.6186</v>
       </c>
       <c r="E3" t="n">
-        <v>20104.49710787541</v>
+        <v>20044.49710787541</v>
       </c>
       <c r="F3" t="n">
-        <v>8433.333333333332</v>
+        <v>8433.033333333333</v>
       </c>
       <c r="G3" t="n">
-        <v>-18172.59044120874</v>
+        <v>-448.7770412087521</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>-18172.59044120874</v>
+        <v>-448.7770412087521</v>
       </c>
       <c r="J3" t="n">
-        <v>-12048.87948177621</v>
+        <v>6898.633918223783</v>
       </c>
       <c r="K3" t="n">
         <v>3656.0223739008</v>
       </c>
       <c r="L3" t="n">
-        <v>-78327.39896355242</v>
+        <v>-40802.71556355244</v>
       </c>
       <c r="M3" t="n">
-        <v>-78327.39896355242</v>
+        <v>-40802.71556355244</v>
       </c>
       <c r="N3" t="n">
         <v>23160.51948177621</v>
       </c>
       <c r="O3" t="n">
-        <v>251000</v>
+        <v>250997</v>
       </c>
       <c r="P3" t="n">
-        <v>16866.66666666666</v>
+        <v>16866.06666666667</v>
       </c>
       <c r="Q3" t="n">
-        <v>234133.3333333333</v>
+        <v>234130.9333333333</v>
       </c>
       <c r="R3" t="n">
-        <v>-37228.56635987066</v>
+        <v>293.7170401292969</v>
       </c>
       <c r="S3" t="n">
         <v>193034.5007296516</v>
@@ -864,10 +862,10 @@
         <v>306</v>
       </c>
       <c r="X3" t="n">
-        <v>406.98</v>
+        <v>871.8092999999999</v>
       </c>
       <c r="Y3" t="n">
-        <v>406.98</v>
+        <v>871.8092999999999</v>
       </c>
       <c r="Z3" t="n">
         <v>0</v>
@@ -878,55 +876,55 @@
         <v>2026</v>
       </c>
       <c r="B4" t="n">
-        <v>16604.784</v>
+        <v>35569.81944</v>
       </c>
       <c r="C4" t="n">
-        <v>1373.328</v>
+        <v>2621.808</v>
       </c>
       <c r="D4" t="n">
-        <v>6032.2392</v>
+        <v>6980.490972</v>
       </c>
       <c r="E4" t="n">
-        <v>19721.66379047025</v>
+        <v>19661.66379047025</v>
       </c>
       <c r="F4" t="n">
-        <v>8433.333333333332</v>
+        <v>8433.033333333333</v>
       </c>
       <c r="G4" t="n">
-        <v>-17582.45232380358</v>
+        <v>494.6313441964157</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>74.19470162946236</v>
       </c>
       <c r="I4" t="n">
-        <v>-17582.45232380358</v>
+        <v>420.4366425669534</v>
       </c>
       <c r="J4" t="n">
-        <v>-11814.64668177621</v>
+        <v>7436.42228459432</v>
       </c>
       <c r="K4" t="n">
         <v>4038.855691305963</v>
       </c>
       <c r="L4" t="n">
-        <v>-90142.04564532863</v>
+        <v>-33366.29327895812</v>
       </c>
       <c r="M4" t="n">
-        <v>-90142.04564532863</v>
+        <v>-33366.29327895812</v>
       </c>
       <c r="N4" t="n">
         <v>23160.51948177621</v>
       </c>
       <c r="O4" t="n">
-        <v>251000</v>
+        <v>250997</v>
       </c>
       <c r="P4" t="n">
-        <v>25300</v>
+        <v>25299.1</v>
       </c>
       <c r="Q4" t="n">
-        <v>225700</v>
+        <v>225697.9</v>
       </c>
       <c r="R4" t="n">
-        <v>-53437.6906836743</v>
+        <v>3335.961682696216</v>
       </c>
       <c r="S4" t="n">
         <v>188995.6450383457</v>
@@ -944,10 +942,10 @@
         <v>312.12</v>
       </c>
       <c r="X4" t="n">
-        <v>415.1196</v>
+        <v>889.245486</v>
       </c>
       <c r="Y4" t="n">
-        <v>415.1196</v>
+        <v>889.245486</v>
       </c>
       <c r="Z4" t="n">
         <v>0</v>
@@ -958,55 +956,55 @@
         <v>2027</v>
       </c>
       <c r="B5" t="n">
-        <v>16936.87968</v>
+        <v>36281.21582880001</v>
       </c>
       <c r="C5" t="n">
-        <v>1400.79456</v>
+        <v>2674.24416</v>
       </c>
       <c r="D5" t="n">
-        <v>6152.883984000002</v>
+        <v>7120.100791440002</v>
       </c>
       <c r="E5" t="n">
-        <v>19298.74282208087</v>
+        <v>19238.74282208087</v>
       </c>
       <c r="F5" t="n">
-        <v>8433.333333333332</v>
+        <v>8433.033333333333</v>
       </c>
       <c r="G5" t="n">
-        <v>-16948.0804594142</v>
+        <v>1489.338881945805</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>223.4008322918708</v>
       </c>
       <c r="I5" t="n">
-        <v>-16948.0804594142</v>
+        <v>1265.938049653934</v>
       </c>
       <c r="J5" t="n">
-        <v>-11575.72922577622</v>
+        <v>7911.438883291919</v>
       </c>
       <c r="K5" t="n">
         <v>4461.77665969535</v>
       </c>
       <c r="L5" t="n">
-        <v>-101717.7748711048</v>
+        <v>-25454.8543956662</v>
       </c>
       <c r="M5" t="n">
-        <v>-101717.7748711048</v>
+        <v>-25454.8543956662</v>
       </c>
       <c r="N5" t="n">
         <v>23160.51948177621</v>
       </c>
       <c r="O5" t="n">
-        <v>251000</v>
+        <v>250997</v>
       </c>
       <c r="P5" t="n">
-        <v>33733.33333333333</v>
+        <v>33732.13333333333</v>
       </c>
       <c r="Q5" t="n">
-        <v>217266.6666666667</v>
+        <v>217264.8666666667</v>
       </c>
       <c r="R5" t="n">
-        <v>-68984.97658308847</v>
+        <v>7276.14389235017</v>
       </c>
       <c r="S5" t="n">
         <v>184533.8683786503</v>
@@ -1024,10 +1022,10 @@
         <v>318.3624</v>
       </c>
       <c r="X5" t="n">
-        <v>423.421992</v>
+        <v>907.0303957200002</v>
       </c>
       <c r="Y5" t="n">
-        <v>423.421992</v>
+        <v>907.0303957200002</v>
       </c>
       <c r="Z5" t="n">
         <v>0</v>
@@ -1038,55 +1036,55 @@
         <v>2028</v>
       </c>
       <c r="B6" t="n">
-        <v>17275.6172736</v>
+        <v>37006.84014537599</v>
       </c>
       <c r="C6" t="n">
-        <v>1428.8104512</v>
+        <v>2727.7290432</v>
       </c>
       <c r="D6" t="n">
-        <v>6275.94166368</v>
+        <v>7262.5028072688</v>
       </c>
       <c r="E6" t="n">
-        <v>18831.53650180618</v>
+        <v>18771.53650180618</v>
       </c>
       <c r="F6" t="n">
-        <v>8433.333333333332</v>
+        <v>8433.033333333333</v>
       </c>
       <c r="G6" t="n">
-        <v>-16265.19422521951</v>
+        <v>2539.767502967683</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>380.9651254451524</v>
       </c>
       <c r="I6" t="n">
-        <v>-16265.19422521951</v>
+        <v>2158.802377522531</v>
       </c>
       <c r="J6" t="n">
-        <v>-11332.03342065621</v>
+        <v>8390.581774085827</v>
       </c>
       <c r="K6" t="n">
         <v>4928.982979970036</v>
       </c>
       <c r="L6" t="n">
-        <v>-113049.8082917611</v>
+        <v>-17064.27262158037</v>
       </c>
       <c r="M6" t="n">
-        <v>-113049.8082917611</v>
+        <v>-17064.27262158037</v>
       </c>
       <c r="N6" t="n">
         <v>23160.51948177621</v>
       </c>
       <c r="O6" t="n">
-        <v>251000</v>
+        <v>250997</v>
       </c>
       <c r="P6" t="n">
-        <v>42166.66666666666</v>
+        <v>42165.16666666666</v>
       </c>
       <c r="Q6" t="n">
-        <v>208833.3333333333</v>
+        <v>208831.8333333333</v>
       </c>
       <c r="R6" t="n">
-        <v>-83821.36035710797</v>
+        <v>12162.67531307272</v>
       </c>
       <c r="S6" t="n">
         <v>179604.8853986803</v>
@@ -1104,10 +1102,10 @@
         <v>324.729648</v>
       </c>
       <c r="X6" t="n">
-        <v>431.89043184</v>
+        <v>925.1710036343999</v>
       </c>
       <c r="Y6" t="n">
-        <v>431.89043184</v>
+        <v>925.1710036343999</v>
       </c>
       <c r="Z6" t="n">
         <v>0</v>
@@ -1118,55 +1116,55 @@
         <v>2029</v>
       </c>
       <c r="B7" t="n">
-        <v>17621.129619072</v>
+        <v>37746.97694828352</v>
       </c>
       <c r="C7" t="n">
-        <v>1457.386660224</v>
+        <v>2782.283624064</v>
       </c>
       <c r="D7" t="n">
-        <v>6401.460496953601</v>
+        <v>7407.752863414177</v>
       </c>
       <c r="E7" t="n">
-        <v>18315.40757460757</v>
+        <v>18255.40757460757</v>
       </c>
       <c r="F7" t="n">
-        <v>7433.333333333333</v>
+        <v>7433.033333333333</v>
       </c>
       <c r="G7" t="n">
-        <v>-14529.07178582251</v>
+        <v>4650.783176928435</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>697.6174765392652</v>
       </c>
       <c r="I7" t="n">
-        <v>-14529.07178582251</v>
+        <v>3953.16570038917</v>
       </c>
       <c r="J7" t="n">
-        <v>-11083.46369943381</v>
+        <v>8723.370750617865</v>
       </c>
       <c r="K7" t="n">
         <v>5445.111907168641</v>
       </c>
       <c r="L7" t="n">
-        <v>-124133.2719911949</v>
+        <v>-8340.901870962505</v>
       </c>
       <c r="M7" t="n">
-        <v>-124133.2719911949</v>
+        <v>-8340.901870962505</v>
       </c>
       <c r="N7" t="n">
         <v>23160.51948177621</v>
       </c>
       <c r="O7" t="n">
-        <v>251000</v>
+        <v>250997</v>
       </c>
       <c r="P7" t="n">
-        <v>49599.99999999999</v>
+        <v>49598.2</v>
       </c>
       <c r="Q7" t="n">
-        <v>201400</v>
+        <v>201398.8</v>
       </c>
       <c r="R7" t="n">
-        <v>-96893.04548270654</v>
+        <v>18898.12463752582</v>
       </c>
       <c r="S7" t="n">
         <v>174159.7734915117</v>
@@ -1184,10 +1182,10 @@
         <v>331.22424096</v>
       </c>
       <c r="X7" t="n">
-        <v>440.5282404768</v>
+        <v>943.674423707088</v>
       </c>
       <c r="Y7" t="n">
-        <v>440.5282404768</v>
+        <v>943.674423707088</v>
       </c>
       <c r="Z7" t="n">
         <v>0</v>
@@ -1198,55 +1196,55 @@
         <v>2030</v>
       </c>
       <c r="B8" t="n">
-        <v>17973.55221145344</v>
+        <v>38501.91648724919</v>
       </c>
       <c r="C8" t="n">
-        <v>1486.53439342848</v>
+        <v>2837.92929654528</v>
       </c>
       <c r="D8" t="n">
-        <v>6529.489706892673</v>
+        <v>7555.907920682461</v>
       </c>
       <c r="E8" t="n">
-        <v>17745.23320424682</v>
+        <v>17685.23320424682</v>
       </c>
       <c r="F8" t="n">
-        <v>7433.333333333333</v>
+        <v>7433.033333333333</v>
       </c>
       <c r="G8" t="n">
-        <v>-13734.50403301938</v>
+        <v>5827.74202898658</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>874.1613043479871</v>
       </c>
       <c r="I8" t="n">
-        <v>-13734.50403301938</v>
+        <v>4953.580724638593</v>
       </c>
       <c r="J8" t="n">
-        <v>-10829.92258378697</v>
+        <v>9209.257076987806</v>
       </c>
       <c r="K8" t="n">
         <v>6015.286277529398</v>
       </c>
       <c r="L8" t="n">
-        <v>-134963.1945749818</v>
+        <v>868.3552060253005</v>
       </c>
       <c r="M8" t="n">
-        <v>-134963.1945749818</v>
+        <v>868.3552060253005</v>
       </c>
       <c r="N8" t="n">
         <v>23160.51948177621</v>
       </c>
       <c r="O8" t="n">
-        <v>251000</v>
+        <v>250997</v>
       </c>
       <c r="P8" t="n">
-        <v>57033.33333333333</v>
+        <v>57031.23333333333</v>
       </c>
       <c r="Q8" t="n">
-        <v>193966.6666666667</v>
+        <v>193965.7666666667</v>
       </c>
       <c r="R8" t="n">
-        <v>-109141.0151222975</v>
+        <v>26689.63465870966</v>
       </c>
       <c r="S8" t="n">
         <v>168144.4872139823</v>
@@ -1264,10 +1262,10 @@
         <v>337.8487257792</v>
       </c>
       <c r="X8" t="n">
-        <v>449.338805286336</v>
+        <v>962.5479121812298</v>
       </c>
       <c r="Y8" t="n">
-        <v>449.338805286336</v>
+        <v>962.5479121812298</v>
       </c>
       <c r="Z8" t="n">
         <v>0</v>
@@ -1278,55 +1276,55 @@
         <v>2031</v>
       </c>
       <c r="B9" t="n">
-        <v>18333.02325568251</v>
+        <v>39271.95481699418</v>
       </c>
       <c r="C9" t="n">
-        <v>1516.26508129705</v>
+        <v>2894.687882476186</v>
       </c>
       <c r="D9" t="n">
-        <v>6660.079501030526</v>
+        <v>7707.026079096109</v>
       </c>
       <c r="E9" t="n">
-        <v>17115.35412658917</v>
+        <v>17055.35412658917</v>
       </c>
       <c r="F9" t="n">
-        <v>7433.333333333333</v>
+        <v>7433.033333333333</v>
       </c>
       <c r="G9" t="n">
-        <v>-12875.74370527052</v>
+        <v>7076.541277975564</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>1061.481191696335</v>
       </c>
       <c r="I9" t="n">
-        <v>-12875.74370527052</v>
+        <v>6015.06008627923</v>
       </c>
       <c r="J9" t="n">
-        <v>-10571.31064582718</v>
+        <v>9697.615946901706</v>
       </c>
       <c r="K9" t="n">
         <v>6645.165355187044</v>
       </c>
       <c r="L9" t="n">
-        <v>-145534.505220809</v>
+        <v>10565.97115292701</v>
       </c>
       <c r="M9" t="n">
-        <v>-145534.505220809</v>
+        <v>10565.97115292701</v>
       </c>
       <c r="N9" t="n">
         <v>23160.51948177621</v>
       </c>
       <c r="O9" t="n">
-        <v>251000</v>
+        <v>250997</v>
       </c>
       <c r="P9" t="n">
-        <v>64466.66666666666</v>
+        <v>64464.26666666666</v>
       </c>
       <c r="Q9" t="n">
-        <v>186533.3333333333</v>
+        <v>186532.7333333333</v>
       </c>
       <c r="R9" t="n">
-        <v>-120500.4937462709</v>
+        <v>35599.38262746506</v>
       </c>
       <c r="S9" t="n">
         <v>161499.3218587953</v>
@@ -1344,10 +1342,10 @@
         <v>344.605700294784</v>
       </c>
       <c r="X9" t="n">
-        <v>458.3255813920628</v>
+        <v>981.7988704248545</v>
       </c>
       <c r="Y9" t="n">
-        <v>458.3255813920628</v>
+        <v>981.7988704248545</v>
       </c>
       <c r="Z9" t="n">
         <v>0</v>
@@ -1358,55 +1356,55 @@
         <v>2032</v>
       </c>
       <c r="B10" t="n">
-        <v>18699.68372079616</v>
+        <v>40057.39391333406</v>
       </c>
       <c r="C10" t="n">
-        <v>1546.590382922991</v>
+        <v>2952.58164012571</v>
       </c>
       <c r="D10" t="n">
-        <v>6793.281091051137</v>
+        <v>7861.166600678032</v>
       </c>
       <c r="E10" t="n">
-        <v>16419.5184785929</v>
+        <v>16359.5184785929</v>
       </c>
       <c r="F10" t="n">
-        <v>7433.333333333333</v>
+        <v>7433.033333333333</v>
       </c>
       <c r="G10" t="n">
-        <v>-11946.44918218121</v>
+        <v>8403.675500729796</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>1260.551325109469</v>
       </c>
       <c r="I10" t="n">
-        <v>-11946.44918218121</v>
+        <v>7143.124175620327</v>
       </c>
       <c r="J10" t="n">
-        <v>-10307.5264691082</v>
+        <v>10187.73814589606</v>
       </c>
       <c r="K10" t="n">
         <v>7341.001003183315</v>
       </c>
       <c r="L10" t="n">
-        <v>-155842.0316899172</v>
+        <v>20753.70929882307</v>
       </c>
       <c r="M10" t="n">
-        <v>-155842.0316899172</v>
+        <v>20753.70929882307</v>
       </c>
       <c r="N10" t="n">
         <v>23160.51948177621</v>
       </c>
       <c r="O10" t="n">
-        <v>251000</v>
+        <v>250997</v>
       </c>
       <c r="P10" t="n">
-        <v>71900</v>
+        <v>71897.29999999999</v>
       </c>
       <c r="Q10" t="n">
-        <v>179100</v>
+        <v>179099.7</v>
       </c>
       <c r="R10" t="n">
-        <v>-130900.3525455292</v>
+        <v>45695.08844321113</v>
       </c>
       <c r="S10" t="n">
         <v>154158.3208556119</v>
@@ -1424,10 +1422,10 @@
         <v>351.4978143006797</v>
       </c>
       <c r="X10" t="n">
-        <v>467.4920930199041</v>
+        <v>1001.434847833352</v>
       </c>
       <c r="Y10" t="n">
-        <v>467.4920930199041</v>
+        <v>1001.434847833352</v>
       </c>
       <c r="Z10" t="n">
         <v>0</v>
@@ -1438,55 +1436,55 @@
         <v>2033</v>
       </c>
       <c r="B11" t="n">
-        <v>19073.67739521209</v>
+        <v>40858.54179160074</v>
       </c>
       <c r="C11" t="n">
-        <v>1577.522190581451</v>
+        <v>3011.633272928224</v>
       </c>
       <c r="D11" t="n">
-        <v>24855.53524220682</v>
+        <v>25944.77846202626</v>
       </c>
       <c r="E11" t="n">
-        <v>15650.81974545993</v>
+        <v>15590.81974545993</v>
       </c>
       <c r="F11" t="n">
-        <v>7433.333333333333</v>
+        <v>7433.033333333333</v>
       </c>
       <c r="G11" t="n">
-        <v>-28866.010925788</v>
+        <v>-8110.089749218776</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>-28866.010925788</v>
+        <v>-8110.089749218776</v>
       </c>
       <c r="J11" t="n">
-        <v>-27964.8551381895</v>
+        <v>-5775.122879273506</v>
       </c>
       <c r="K11" t="n">
         <v>8109.699736316285</v>
       </c>
       <c r="L11" t="n">
-        <v>-183806.8868281067</v>
+        <v>14978.58641954956</v>
       </c>
       <c r="M11" t="n">
-        <v>-183806.8868281067</v>
+        <v>14978.58641954956</v>
       </c>
       <c r="N11" t="n">
         <v>23160.51948177621</v>
       </c>
       <c r="O11" t="n">
-        <v>251000</v>
+        <v>250997</v>
       </c>
       <c r="P11" t="n">
-        <v>79333.33333333333</v>
+        <v>79330.33333333331</v>
       </c>
       <c r="Q11" t="n">
         <v>171666.6666666667</v>
       </c>
       <c r="R11" t="n">
-        <v>-158188.8412807357</v>
+        <v>40596.63196692066</v>
       </c>
       <c r="S11" t="n">
         <v>146048.6211192956</v>
@@ -1504,10 +1502,10 @@
         <v>358.5277705866933</v>
       </c>
       <c r="X11" t="n">
-        <v>476.8419348803022</v>
+        <v>1021.463544790019</v>
       </c>
       <c r="Y11" t="n">
-        <v>476.8419348803022</v>
+        <v>1021.463544790019</v>
       </c>
       <c r="Z11" t="n">
         <v>0</v>
@@ -1518,55 +1516,55 @@
         <v>2034</v>
       </c>
       <c r="B12" t="n">
-        <v>19455.15094311633</v>
+        <v>41675.71262743276</v>
       </c>
       <c r="C12" t="n">
-        <v>1609.07263439308</v>
+        <v>3071.865938386788</v>
       </c>
       <c r="D12" t="n">
-        <v>7067.729647129602</v>
+        <v>8178.757731345425</v>
       </c>
       <c r="E12" t="n">
-        <v>14801.62821004237</v>
+        <v>14741.62821004237</v>
       </c>
       <c r="F12" t="n">
         <v>4833.333333333333</v>
       </c>
       <c r="G12" t="n">
-        <v>-7247.540247388978</v>
+        <v>13921.99335271163</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>2088.299002906745</v>
       </c>
       <c r="I12" t="n">
-        <v>-7247.540247388978</v>
+        <v>11833.69434980489</v>
       </c>
       <c r="J12" t="n">
-        <v>-9764.025551396409</v>
+        <v>10780.00234979116</v>
       </c>
       <c r="K12" t="n">
         <v>8958.891271733844</v>
       </c>
       <c r="L12" t="n">
-        <v>-193570.9123795032</v>
+        <v>25758.58876934072</v>
       </c>
       <c r="M12" t="n">
-        <v>-193570.9123795032</v>
+        <v>25758.58876934072</v>
       </c>
       <c r="N12" t="n">
         <v>23160.51948177621</v>
       </c>
       <c r="O12" t="n">
-        <v>251000</v>
+        <v>250997</v>
       </c>
       <c r="P12" t="n">
-        <v>84166.66666666666</v>
+        <v>84163.66666666664</v>
       </c>
       <c r="Q12" t="n">
-        <v>166833.3333333333</v>
+        <v>166833.3333333334</v>
       </c>
       <c r="R12" t="n">
-        <v>-163827.3088937316</v>
+        <v>55502.19225511231</v>
       </c>
       <c r="S12" t="n">
         <v>137089.7298475618</v>
@@ -1584,10 +1582,10 @@
         <v>365.6983259984272</v>
       </c>
       <c r="X12" t="n">
-        <v>486.3787735779082</v>
+        <v>1041.892815685819</v>
       </c>
       <c r="Y12" t="n">
-        <v>486.3787735779082</v>
+        <v>1041.892815685819</v>
       </c>
       <c r="Z12" t="n">
         <v>0</v>
@@ -1598,55 +1596,55 @@
         <v>2035</v>
       </c>
       <c r="B13" t="n">
-        <v>19844.25396197865</v>
+        <v>42509.22687998141</v>
       </c>
       <c r="C13" t="n">
-        <v>1641.254087080941</v>
+        <v>3133.303257154524</v>
       </c>
       <c r="D13" t="n">
-        <v>7209.084240072194</v>
+        <v>8342.332885972331</v>
       </c>
       <c r="E13" t="n">
-        <v>13863.51522410605</v>
+        <v>13803.51522410605</v>
       </c>
       <c r="F13" t="n">
         <v>4833.333333333333</v>
       </c>
       <c r="G13" t="n">
-        <v>-6061.678835532925</v>
+        <v>15530.04543656969</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>2329.506815485454</v>
       </c>
       <c r="I13" t="n">
-        <v>-6061.678835532925</v>
+        <v>13200.53862108424</v>
       </c>
       <c r="J13" t="n">
-        <v>-9484.09567278881</v>
+        <v>11270.17095390194</v>
       </c>
       <c r="K13" t="n">
         <v>9897.00425767016</v>
       </c>
       <c r="L13" t="n">
-        <v>-203055.008052292</v>
+        <v>37028.75972324266</v>
       </c>
       <c r="M13" t="n">
-        <v>-203055.008052292</v>
+        <v>37028.75972324266</v>
       </c>
       <c r="N13" t="n">
         <v>23160.51948177621</v>
       </c>
       <c r="O13" t="n">
-        <v>251000</v>
+        <v>250997</v>
       </c>
       <c r="P13" t="n">
-        <v>88999.99999999999</v>
+        <v>88996.99999999997</v>
       </c>
       <c r="Q13" t="n">
         <v>162000</v>
       </c>
       <c r="R13" t="n">
-        <v>-168247.7336421835</v>
+        <v>71836.0341333511</v>
       </c>
       <c r="S13" t="n">
         <v>127192.7255898916</v>
@@ -1664,10 +1662,10 @@
         <v>373.0122925183957</v>
       </c>
       <c r="X13" t="n">
-        <v>496.1063490494664</v>
+        <v>1062.730671999535</v>
       </c>
       <c r="Y13" t="n">
-        <v>496.1063490494664</v>
+        <v>1062.730671999535</v>
       </c>
       <c r="Z13" t="n">
         <v>0</v>
@@ -1678,55 +1676,55 @@
         <v>2036</v>
       </c>
       <c r="B14" t="n">
-        <v>20241.13904121823</v>
+        <v>43359.41141758104</v>
       </c>
       <c r="C14" t="n">
-        <v>1674.07916882256</v>
+        <v>3195.969322297615</v>
       </c>
       <c r="D14" t="n">
-        <v>7353.265924873639</v>
+        <v>8509.17954369178</v>
       </c>
       <c r="E14" t="n">
-        <v>12827.16954980583</v>
+        <v>12767.16954980583</v>
       </c>
       <c r="F14" t="n">
         <v>4833.333333333333</v>
       </c>
       <c r="G14" t="n">
-        <v>-4772.629766794577</v>
+        <v>17249.72899075009</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>2587.459348612514</v>
       </c>
       <c r="I14" t="n">
-        <v>-4772.629766794577</v>
+        <v>14662.26964213758</v>
       </c>
       <c r="J14" t="n">
-        <v>-9198.567196609063</v>
+        <v>11758.22236579814</v>
       </c>
       <c r="K14" t="n">
         <v>10933.34993197038</v>
       </c>
       <c r="L14" t="n">
-        <v>-212253.575248901</v>
+        <v>48786.9820890408</v>
       </c>
       <c r="M14" t="n">
-        <v>-212253.575248901</v>
+        <v>48786.9820890408</v>
       </c>
       <c r="N14" t="n">
         <v>23160.51948177621</v>
       </c>
       <c r="O14" t="n">
-        <v>251000</v>
+        <v>250997</v>
       </c>
       <c r="P14" t="n">
-        <v>93833.33333333331</v>
+        <v>93830.3333333333</v>
       </c>
       <c r="Q14" t="n">
         <v>157166.6666666667</v>
       </c>
       <c r="R14" t="n">
-        <v>-171346.2842401555</v>
+        <v>89694.27309778628</v>
       </c>
       <c r="S14" t="n">
         <v>116259.3756579212</v>
@@ -1744,10 +1742,10 @@
         <v>380.4725383687637</v>
       </c>
       <c r="X14" t="n">
-        <v>506.0284760304557</v>
+        <v>1083.985285439526</v>
       </c>
       <c r="Y14" t="n">
-        <v>506.0284760304557</v>
+        <v>1083.985285439526</v>
       </c>
       <c r="Z14" t="n">
         <v>0</v>
@@ -1758,55 +1756,55 @@
         <v>2037</v>
       </c>
       <c r="B15" t="n">
-        <v>20645.96182204259</v>
+        <v>44226.59964593266</v>
       </c>
       <c r="C15" t="n">
-        <v>1707.560752199011</v>
+        <v>3259.888708743567</v>
       </c>
       <c r="D15" t="n">
-        <v>7500.331243371113</v>
+        <v>8679.363134565616</v>
       </c>
       <c r="E15" t="n">
-        <v>11682.30494102011</v>
+        <v>11622.30494102011</v>
       </c>
       <c r="F15" t="n">
         <v>4833.333333333333</v>
       </c>
       <c r="G15" t="n">
-        <v>-3370.00769568197</v>
+        <v>19091.5982370136</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>2863.739735552039</v>
       </c>
       <c r="I15" t="n">
-        <v>-3370.00769568197</v>
+        <v>16227.85850146156</v>
       </c>
       <c r="J15" t="n">
-        <v>-8907.328150905725</v>
+        <v>12242.86600278236</v>
       </c>
       <c r="K15" t="n">
         <v>12078.2145407561</v>
       </c>
       <c r="L15" t="n">
-        <v>-221160.9033998068</v>
+        <v>61029.84809182317</v>
       </c>
       <c r="M15" t="n">
-        <v>-221160.9033998068</v>
+        <v>61029.84809182317</v>
       </c>
       <c r="N15" t="n">
         <v>23160.51948177621</v>
       </c>
       <c r="O15" t="n">
-        <v>251000</v>
+        <v>250997</v>
       </c>
       <c r="P15" t="n">
-        <v>98666.66666666664</v>
+        <v>98663.66666666663</v>
       </c>
       <c r="Q15" t="n">
         <v>152333.3333333334</v>
       </c>
       <c r="R15" t="n">
-        <v>-173008.7311836385</v>
+        <v>109182.0203079914</v>
       </c>
       <c r="S15" t="n">
         <v>104181.1611171651</v>
@@ -1824,10 +1822,10 @@
         <v>388.081989136139</v>
       </c>
       <c r="X15" t="n">
-        <v>516.1490455510648</v>
+        <v>1105.664991148317</v>
       </c>
       <c r="Y15" t="n">
-        <v>516.1490455510648</v>
+        <v>1105.664991148317</v>
       </c>
       <c r="Z15" t="n">
         <v>0</v>
@@ -1838,55 +1836,55 @@
         <v>2038</v>
       </c>
       <c r="B16" t="n">
-        <v>21058.88105848344</v>
+        <v>45111.13163885132</v>
       </c>
       <c r="C16" t="n">
-        <v>1741.711967242991</v>
+        <v>3325.086482918438</v>
       </c>
       <c r="D16" t="n">
-        <v>7650.337868238536</v>
+        <v>8852.950397256929</v>
       </c>
       <c r="E16" t="n">
-        <v>10417.55804724347</v>
+        <v>10357.55804724347</v>
       </c>
       <c r="F16" t="n">
         <v>4833.333333333333</v>
       </c>
       <c r="G16" t="n">
-        <v>-1842.348190331893</v>
+        <v>21067.28986101759</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>3160.093479152638</v>
       </c>
       <c r="I16" t="n">
-        <v>-1842.348190331893</v>
+        <v>17907.19638186495</v>
       </c>
       <c r="J16" t="n">
-        <v>-8610.264324288317</v>
+        <v>12722.65476358397</v>
       </c>
       <c r="K16" t="n">
         <v>13342.96143453275</v>
       </c>
       <c r="L16" t="n">
-        <v>-229771.1677240951</v>
+        <v>73752.50285540713</v>
       </c>
       <c r="M16" t="n">
-        <v>-229771.1677240951</v>
+        <v>73752.50285540713</v>
       </c>
       <c r="N16" t="n">
         <v>23160.51948177621</v>
       </c>
       <c r="O16" t="n">
-        <v>251000</v>
+        <v>250997</v>
       </c>
       <c r="P16" t="n">
-        <v>103500</v>
+        <v>103497</v>
       </c>
       <c r="Q16" t="n">
-        <v>147500</v>
+        <v>147500.0000000001</v>
       </c>
       <c r="R16" t="n">
-        <v>-173109.3674067275</v>
+        <v>130414.3031727748</v>
       </c>
       <c r="S16" t="n">
         <v>90838.19968263239</v>
@@ -1904,10 +1902,10 @@
         <v>395.8436289188617</v>
       </c>
       <c r="X16" t="n">
-        <v>526.4720264620861</v>
+        <v>1127.778290971283</v>
       </c>
       <c r="Y16" t="n">
-        <v>526.4720264620861</v>
+        <v>1127.778290971283</v>
       </c>
       <c r="Z16" t="n">
         <v>0</v>
@@ -1918,55 +1916,55 @@
         <v>2039</v>
       </c>
       <c r="B17" t="n">
-        <v>21480.05867965311</v>
+        <v>46013.35427162835</v>
       </c>
       <c r="C17" t="n">
-        <v>1776.546206587851</v>
+        <v>3391.588212576807</v>
       </c>
       <c r="D17" t="n">
-        <v>7803.344625603305</v>
+        <v>9030.009405202067</v>
       </c>
       <c r="E17" t="n">
-        <v>9020.375626682611</v>
+        <v>8960.375626682611</v>
       </c>
       <c r="F17" t="n">
         <v>3500</v>
       </c>
       <c r="G17" t="n">
-        <v>1156.338427367196</v>
+        <v>24522.96923974367</v>
       </c>
       <c r="H17" t="n">
-        <v>173.4507641050795</v>
+        <v>3678.445385961551</v>
       </c>
       <c r="I17" t="n">
-        <v>982.8876632621169</v>
+        <v>20844.52385378212</v>
       </c>
       <c r="J17" t="n">
-        <v>-8480.709985243633</v>
+        <v>12995.96821126532</v>
       </c>
       <c r="K17" t="n">
         <v>14740.1438550936</v>
       </c>
       <c r="L17" t="n">
-        <v>-238251.8777093387</v>
+        <v>86748.47106667246</v>
       </c>
       <c r="M17" t="n">
-        <v>-238251.8777093387</v>
+        <v>86748.47106667246</v>
       </c>
       <c r="N17" t="n">
         <v>23160.51948177621</v>
       </c>
       <c r="O17" t="n">
-        <v>251000</v>
+        <v>250997</v>
       </c>
       <c r="P17" t="n">
-        <v>107000</v>
+        <v>106997</v>
       </c>
       <c r="Q17" t="n">
-        <v>144000</v>
+        <v>144000.0000000001</v>
       </c>
       <c r="R17" t="n">
-        <v>-170349.9335368774</v>
+        <v>154650.4152391338</v>
       </c>
       <c r="S17" t="n">
         <v>76098.05582753877</v>
@@ -1984,10 +1982,10 @@
         <v>403.760501497239</v>
       </c>
       <c r="X17" t="n">
-        <v>537.0014669913279</v>
+        <v>1150.333856790709</v>
       </c>
       <c r="Y17" t="n">
-        <v>537.0014669913279</v>
+        <v>1150.333856790709</v>
       </c>
       <c r="Z17" t="n">
         <v>0</v>
@@ -1998,55 +1996,55 @@
         <v>2040</v>
       </c>
       <c r="B18" t="n">
-        <v>21909.65985324618</v>
+        <v>46933.62135706091</v>
       </c>
       <c r="C18" t="n">
-        <v>1812.077130719608</v>
+        <v>3459.419976828343</v>
       </c>
       <c r="D18" t="n">
-        <v>7959.411518115372</v>
+        <v>9210.609593306108</v>
       </c>
       <c r="E18" t="n">
-        <v>7476.889949089771</v>
+        <v>7416.889949089771</v>
       </c>
       <c r="F18" t="n">
         <v>3500</v>
       </c>
       <c r="G18" t="n">
-        <v>2973.358386041033</v>
+        <v>26806.12181466503</v>
       </c>
       <c r="H18" t="n">
-        <v>446.0037579061549</v>
+        <v>4020.918272199754</v>
       </c>
       <c r="I18" t="n">
-        <v>2527.354628134878</v>
+        <v>22785.20354246528</v>
       </c>
       <c r="J18" t="n">
-        <v>-8444.197773831958</v>
+        <v>13460.99398660718</v>
       </c>
       <c r="K18" t="n">
         <v>16283.62953268644</v>
       </c>
       <c r="L18" t="n">
-        <v>-246696.0754831707</v>
+        <v>100209.4650532796</v>
       </c>
       <c r="M18" t="n">
-        <v>-246696.0754831707</v>
+        <v>100209.4650532796</v>
       </c>
       <c r="N18" t="n">
         <v>23160.51948177621</v>
       </c>
       <c r="O18" t="n">
-        <v>251000</v>
+        <v>250997</v>
       </c>
       <c r="P18" t="n">
-        <v>110500</v>
+        <v>110497</v>
       </c>
       <c r="Q18" t="n">
-        <v>140500</v>
+        <v>140500.0000000001</v>
       </c>
       <c r="R18" t="n">
-        <v>-166010.501778023</v>
+        <v>180895.0387584274</v>
       </c>
       <c r="S18" t="n">
         <v>59814.42629485233</v>
@@ -2064,10 +2062,10 @@
         <v>411.8357115271837</v>
       </c>
       <c r="X18" t="n">
-        <v>547.7414963311544</v>
+        <v>1173.340533926523</v>
       </c>
       <c r="Y18" t="n">
-        <v>547.7414963311544</v>
+        <v>1173.340533926523</v>
       </c>
       <c r="Z18" t="n">
         <v>0</v>
@@ -2078,55 +2076,55 @@
         <v>2041</v>
       </c>
       <c r="B19" t="n">
-        <v>22347.8530503111</v>
+        <v>47872.29378420213</v>
       </c>
       <c r="C19" t="n">
-        <v>1848.318673334001</v>
+        <v>3528.608376364911</v>
       </c>
       <c r="D19" t="n">
-        <v>8118.599748477679</v>
+        <v>9394.821785172231</v>
       </c>
       <c r="E19" t="n">
-        <v>5771.781151644475</v>
+        <v>5711.781151644475</v>
       </c>
       <c r="F19" t="n">
         <v>3500</v>
       </c>
       <c r="G19" t="n">
-        <v>4957.472150188946</v>
+        <v>29265.69084738543</v>
       </c>
       <c r="H19" t="n">
-        <v>743.6208225283419</v>
+        <v>4389.853627107815</v>
       </c>
       <c r="I19" t="n">
-        <v>4213.851327660605</v>
+        <v>24875.83722027762</v>
       </c>
       <c r="J19" t="n">
-        <v>-8426.568329137133</v>
+        <v>13915.70726651078</v>
       </c>
       <c r="K19" t="n">
         <v>17988.73833013174</v>
       </c>
       <c r="L19" t="n">
-        <v>-255122.6438123078</v>
+        <v>114125.1723197904</v>
       </c>
       <c r="M19" t="n">
-        <v>-255122.6438123078</v>
+        <v>114125.1723197904</v>
       </c>
       <c r="N19" t="n">
         <v>23160.51948177621</v>
       </c>
       <c r="O19" t="n">
-        <v>251000</v>
+        <v>250997</v>
       </c>
       <c r="P19" t="n">
-        <v>114000</v>
+        <v>113997</v>
       </c>
       <c r="Q19" t="n">
-        <v>137000</v>
+        <v>137000.0000000001</v>
       </c>
       <c r="R19" t="n">
-        <v>-159948.3317770284</v>
+        <v>209299.4843550699</v>
       </c>
       <c r="S19" t="n">
         <v>41825.68796472059</v>
@@ -2144,10 +2142,10 @@
         <v>420.0724257577274</v>
       </c>
       <c r="X19" t="n">
-        <v>558.6963262577775</v>
+        <v>1196.807344605053</v>
       </c>
       <c r="Y19" t="n">
-        <v>558.6963262577775</v>
+        <v>1196.807344605053</v>
       </c>
       <c r="Z19" t="n">
         <v>0</v>
@@ -2158,55 +2156,55 @@
         <v>2042</v>
       </c>
       <c r="B20" t="n">
-        <v>22794.81011131732</v>
+        <v>48829.73965988618</v>
       </c>
       <c r="C20" t="n">
-        <v>1885.285046800681</v>
+        <v>3599.180543892209</v>
       </c>
       <c r="D20" t="n">
-        <v>8280.971743447233</v>
+        <v>9582.718220875677</v>
       </c>
       <c r="E20" t="n">
-        <v>3888.125181697543</v>
+        <v>3828.125181697543</v>
       </c>
       <c r="F20" t="n">
         <v>3500</v>
       </c>
       <c r="G20" t="n">
-        <v>7125.713186172546</v>
+        <v>31918.89625731296</v>
       </c>
       <c r="H20" t="n">
-        <v>1068.856977925882</v>
+        <v>4787.834438596944</v>
       </c>
       <c r="I20" t="n">
-        <v>6056.856208246663</v>
+        <v>27131.06181871602</v>
       </c>
       <c r="J20" t="n">
-        <v>-8430.253045031326</v>
+        <v>14357.84806252956</v>
       </c>
       <c r="K20" t="n">
         <v>19872.39430007867</v>
       </c>
       <c r="L20" t="n">
-        <v>-263552.8968573391</v>
+        <v>128483.02038232</v>
       </c>
       <c r="M20" t="n">
-        <v>-263552.8968573391</v>
+        <v>128483.02038232</v>
       </c>
       <c r="N20" t="n">
         <v>23160.51948177621</v>
       </c>
       <c r="O20" t="n">
-        <v>251000</v>
+        <v>250997</v>
       </c>
       <c r="P20" t="n">
-        <v>117500</v>
+        <v>117497</v>
       </c>
       <c r="Q20" t="n">
-        <v>133500</v>
+        <v>133500.0000000001</v>
       </c>
       <c r="R20" t="n">
-        <v>-152006.190521981</v>
+        <v>240029.7267176781</v>
       </c>
       <c r="S20" t="n">
         <v>21953.29366464193</v>
@@ -2224,10 +2222,10 @@
         <v>428.473874272882</v>
       </c>
       <c r="X20" t="n">
-        <v>569.8702527829331</v>
+        <v>1220.743491497155</v>
       </c>
       <c r="Y20" t="n">
-        <v>569.8702527829331</v>
+        <v>1220.743491497155</v>
       </c>
       <c r="Z20" t="n">
         <v>0</v>
@@ -2238,55 +2236,55 @@
         <v>2043</v>
       </c>
       <c r="B21" t="n">
-        <v>23250.70631354367</v>
+        <v>49806.3344530839</v>
       </c>
       <c r="C21" t="n">
-        <v>1922.990747736694</v>
+        <v>3671.164154770053</v>
       </c>
       <c r="D21" t="n">
-        <v>37582.81462887215</v>
+        <v>38910.59603584916</v>
       </c>
       <c r="E21" t="n">
-        <v>1807.225817133354</v>
+        <v>1747.225817133354</v>
       </c>
       <c r="F21" t="n">
         <v>3500</v>
       </c>
       <c r="G21" t="n">
-        <v>-19639.33413246184</v>
+        <v>5648.512600101383</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>847.2768900152074</v>
       </c>
       <c r="I21" t="n">
-        <v>-19639.33413246184</v>
+        <v>4801.235710086175</v>
       </c>
       <c r="J21" t="n">
-        <v>-36169.63704936707</v>
+        <v>-9980.893799785701</v>
       </c>
       <c r="K21" t="n">
         <v>21953.29366464193</v>
       </c>
       <c r="L21" t="n">
-        <v>-299722.5339067062</v>
+        <v>118502.1265825343</v>
       </c>
       <c r="M21" t="n">
-        <v>-299722.5339067062</v>
+        <v>118502.1265825343</v>
       </c>
       <c r="N21" t="n">
         <v>23160.51948177621</v>
       </c>
       <c r="O21" t="n">
-        <v>251000</v>
+        <v>250997</v>
       </c>
       <c r="P21" t="n">
-        <v>121000</v>
+        <v>120997</v>
       </c>
       <c r="Q21" t="n">
         <v>130000</v>
       </c>
       <c r="R21" t="n">
-        <v>-169722.5339067062</v>
+        <v>248502.1265825343</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -2304,10 +2302,10 @@
         <v>437.0433517583396</v>
       </c>
       <c r="X21" t="n">
-        <v>581.2676578385917</v>
+        <v>1245.158361327098</v>
       </c>
       <c r="Y21" t="n">
-        <v>581.2676578385917</v>
+        <v>1245.158361327098</v>
       </c>
       <c r="Z21" t="n">
         <v>0</v>
@@ -2318,55 +2316,55 @@
         <v>2044</v>
       </c>
       <c r="B22" t="n">
-        <v>23715.72043981454</v>
+        <v>50802.46114214558</v>
       </c>
       <c r="C22" t="n">
-        <v>1961.450562691429</v>
+        <v>3744.587437865454</v>
       </c>
       <c r="D22" t="n">
-        <v>8615.523001882502</v>
+        <v>9969.860036999053</v>
       </c>
       <c r="E22" t="n">
-        <v>600</v>
+        <v>540</v>
       </c>
       <c r="F22" t="n">
         <v>3500</v>
       </c>
       <c r="G22" t="n">
-        <v>11000.19743793204</v>
+        <v>36792.60110514653</v>
       </c>
       <c r="H22" t="n">
-        <v>1650.029615689806</v>
+        <v>5518.89016577198</v>
       </c>
       <c r="I22" t="n">
-        <v>9350.167822242236</v>
+        <v>31273.71093937455</v>
       </c>
       <c r="J22" t="n">
-        <v>14811.61838493366</v>
+        <v>38518.29837724</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>-284910.9155217725</v>
+        <v>157020.4249597743</v>
       </c>
       <c r="M22" t="n">
-        <v>-284910.9155217725</v>
+        <v>157020.4249597743</v>
       </c>
       <c r="N22" t="n">
         <v>23160.51948177621</v>
       </c>
       <c r="O22" t="n">
-        <v>251000</v>
+        <v>250997</v>
       </c>
       <c r="P22" t="n">
-        <v>124500</v>
+        <v>124497</v>
       </c>
       <c r="Q22" t="n">
         <v>126500</v>
       </c>
       <c r="R22" t="n">
-        <v>-158410.9155217725</v>
+        <v>283520.4249597744</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -2384,10 +2382,10 @@
         <v>445.7842187935065</v>
       </c>
       <c r="X22" t="n">
-        <v>592.8930109953636</v>
+        <v>1270.06152855364</v>
       </c>
       <c r="Y22" t="n">
-        <v>592.8930109953636</v>
+        <v>1270.06152855364</v>
       </c>
       <c r="Z22" t="n">
         <v>0</v>
@@ -2398,55 +2396,55 @@
         <v>2045</v>
       </c>
       <c r="B23" t="n">
-        <v>24190.03484861083</v>
+        <v>51818.51036498849</v>
       </c>
       <c r="C23" t="n">
-        <v>2000.679573945257</v>
+        <v>3819.479186622763</v>
       </c>
       <c r="D23" t="n">
-        <v>8787.833461920151</v>
+        <v>10169.25723773903</v>
       </c>
       <c r="E23" t="n">
-        <v>600</v>
+        <v>540</v>
       </c>
       <c r="F23" t="n">
         <v>3500</v>
       </c>
       <c r="G23" t="n">
-        <v>11302.20138669068</v>
+        <v>37609.25312724946</v>
       </c>
       <c r="H23" t="n">
-        <v>1695.330208003603</v>
+        <v>5641.387969087419</v>
       </c>
       <c r="I23" t="n">
-        <v>9606.871178687081</v>
+        <v>31967.86515816204</v>
       </c>
       <c r="J23" t="n">
-        <v>15107.55075263234</v>
+        <v>39287.3443447848</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>-269803.3647691402</v>
+        <v>196307.7693045591</v>
       </c>
       <c r="M23" t="n">
-        <v>-269803.3647691402</v>
+        <v>196307.7693045591</v>
       </c>
       <c r="N23" t="n">
         <v>23160.51948177621</v>
       </c>
       <c r="O23" t="n">
-        <v>251000</v>
+        <v>250997</v>
       </c>
       <c r="P23" t="n">
-        <v>128000</v>
+        <v>127997</v>
       </c>
       <c r="Q23" t="n">
         <v>123000</v>
       </c>
       <c r="R23" t="n">
-        <v>-146803.3647691402</v>
+        <v>319307.7693045592</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -2464,10 +2462,10 @@
         <v>454.6999031693766</v>
       </c>
       <c r="X23" t="n">
-        <v>604.7508712152709</v>
+        <v>1295.462759124712</v>
       </c>
       <c r="Y23" t="n">
-        <v>604.7508712152709</v>
+        <v>1295.462759124712</v>
       </c>
       <c r="Z23" t="n">
         <v>0</v>
@@ -2478,55 +2476,55 @@
         <v>2046</v>
       </c>
       <c r="B24" t="n">
-        <v>24673.83554558305</v>
+        <v>52854.88057228826</v>
       </c>
       <c r="C24" t="n">
-        <v>2040.693165424162</v>
+        <v>3895.868770355219</v>
       </c>
       <c r="D24" t="n">
-        <v>8963.590131158555</v>
+        <v>10372.64238249381</v>
       </c>
       <c r="E24" t="n">
-        <v>600</v>
+        <v>540</v>
       </c>
       <c r="F24" t="n">
         <v>3500</v>
       </c>
       <c r="G24" t="n">
-        <v>11610.24541442449</v>
+        <v>38442.23818979444</v>
       </c>
       <c r="H24" t="n">
-        <v>1741.536812163674</v>
+        <v>5766.335728469166</v>
       </c>
       <c r="I24" t="n">
-        <v>9868.70860226082</v>
+        <v>32675.90246132528</v>
       </c>
       <c r="J24" t="n">
-        <v>15409.40176768498</v>
+        <v>40071.7712316805</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>-254393.9630014552</v>
+        <v>236379.5405362396</v>
       </c>
       <c r="M24" t="n">
-        <v>-254393.9630014552</v>
+        <v>236379.5405362396</v>
       </c>
       <c r="N24" t="n">
         <v>23160.51948177621</v>
       </c>
       <c r="O24" t="n">
-        <v>251000</v>
+        <v>250997</v>
       </c>
       <c r="P24" t="n">
-        <v>131500</v>
+        <v>131496.9999999999</v>
       </c>
       <c r="Q24" t="n">
-        <v>119500</v>
+        <v>119500.0000000001</v>
       </c>
       <c r="R24" t="n">
-        <v>-134893.9630014552</v>
+        <v>355879.5405362396</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -2544,10 +2542,10 @@
         <v>463.7939012327641</v>
       </c>
       <c r="X24" t="n">
-        <v>616.8458886395763</v>
+        <v>1321.372014307207</v>
       </c>
       <c r="Y24" t="n">
-        <v>616.8458886395763</v>
+        <v>1321.372014307207</v>
       </c>
       <c r="Z24" t="n">
         <v>0</v>
@@ -2558,55 +2556,55 @@
         <v>2047</v>
       </c>
       <c r="B25" t="n">
-        <v>25167.31225649472</v>
+        <v>53911.97818373403</v>
       </c>
       <c r="C25" t="n">
-        <v>2081.507028732646</v>
+        <v>3973.786145762323</v>
       </c>
       <c r="D25" t="n">
-        <v>9142.861933781725</v>
+        <v>10580.09523014369</v>
       </c>
       <c r="E25" t="n">
-        <v>600</v>
+        <v>540</v>
       </c>
       <c r="F25" t="n">
         <v>3500</v>
       </c>
       <c r="G25" t="n">
-        <v>11924.45032271299</v>
+        <v>39291.88295359034</v>
       </c>
       <c r="H25" t="n">
-        <v>1788.667548406949</v>
+        <v>5893.782443038551</v>
       </c>
       <c r="I25" t="n">
-        <v>10135.78277430604</v>
+        <v>33398.10051055179</v>
       </c>
       <c r="J25" t="n">
-        <v>15717.28980303869</v>
+        <v>40871.88665631411</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>-238676.6731984165</v>
+        <v>277251.4271925537</v>
       </c>
       <c r="M25" t="n">
-        <v>-238676.6731984165</v>
+        <v>277251.4271925537</v>
       </c>
       <c r="N25" t="n">
         <v>23160.51948177621</v>
       </c>
       <c r="O25" t="n">
-        <v>251000</v>
+        <v>250997</v>
       </c>
       <c r="P25" t="n">
-        <v>135000</v>
+        <v>134996.9999999999</v>
       </c>
       <c r="Q25" t="n">
-        <v>116000</v>
+        <v>116000.0000000001</v>
       </c>
       <c r="R25" t="n">
-        <v>-122676.6731984165</v>
+        <v>393251.4271925538</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -2624,10 +2622,10 @@
         <v>473.0697792574194</v>
       </c>
       <c r="X25" t="n">
-        <v>629.1828064123679</v>
+        <v>1347.799454593351</v>
       </c>
       <c r="Y25" t="n">
-        <v>629.1828064123679</v>
+        <v>1347.799454593351</v>
       </c>
       <c r="Z25" t="n">
         <v>0</v>
@@ -2638,55 +2636,55 @@
         <v>2048</v>
       </c>
       <c r="B26" t="n">
-        <v>25670.65850162461</v>
+        <v>54990.21774740871</v>
       </c>
       <c r="C26" t="n">
-        <v>2123.137169307298</v>
+        <v>4053.26186867757</v>
       </c>
       <c r="D26" t="n">
-        <v>9325.719172457362</v>
+        <v>10791.69713474657</v>
       </c>
       <c r="E26" t="n">
-        <v>600</v>
+        <v>540</v>
       </c>
       <c r="F26" t="n">
         <v>3500</v>
       </c>
       <c r="G26" t="n">
-        <v>12244.93932916725</v>
+        <v>40158.52061266215</v>
       </c>
       <c r="H26" t="n">
-        <v>1836.740899375087</v>
+        <v>6023.778091899322</v>
       </c>
       <c r="I26" t="n">
-        <v>10408.19842979216</v>
+        <v>34134.74252076283</v>
       </c>
       <c r="J26" t="n">
-        <v>16031.33559909946</v>
+        <v>41688.00438944039</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>-222645.3375993171</v>
+        <v>318939.4315819941</v>
       </c>
       <c r="M26" t="n">
-        <v>-222645.3375993171</v>
+        <v>318939.4315819941</v>
       </c>
       <c r="N26" t="n">
         <v>23160.51948177621</v>
       </c>
       <c r="O26" t="n">
-        <v>251000</v>
+        <v>250997</v>
       </c>
       <c r="P26" t="n">
-        <v>138500</v>
+        <v>138496.9999999999</v>
       </c>
       <c r="Q26" t="n">
-        <v>112500</v>
+        <v>112500.0000000001</v>
       </c>
       <c r="R26" t="n">
-        <v>-110145.337599317</v>
+        <v>431439.4315819942</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -2704,10 +2702,10 @@
         <v>482.5311748425679</v>
       </c>
       <c r="X26" t="n">
-        <v>641.7664625406153</v>
+        <v>1374.755443685218</v>
       </c>
       <c r="Y26" t="n">
-        <v>641.7664625406153</v>
+        <v>1374.755443685218</v>
       </c>
       <c r="Z26" t="n">
         <v>0</v>
@@ -2718,55 +2716,55 @@
         <v>2049</v>
       </c>
       <c r="B27" t="n">
-        <v>26184.0716716571</v>
+        <v>56090.02210235689</v>
       </c>
       <c r="C27" t="n">
-        <v>2165.599912693444</v>
+        <v>4134.327106051122</v>
       </c>
       <c r="D27" t="n">
-        <v>9512.233555906509</v>
+        <v>11007.5310774415</v>
       </c>
       <c r="E27" t="n">
-        <v>600</v>
+        <v>540</v>
       </c>
       <c r="F27" t="n">
         <v>3500</v>
       </c>
       <c r="G27" t="n">
-        <v>12571.83811575059</v>
+        <v>41042.49102491539</v>
       </c>
       <c r="H27" t="n">
-        <v>1885.775717362589</v>
+        <v>6156.373653737309</v>
       </c>
       <c r="I27" t="n">
-        <v>10686.06239838801</v>
+        <v>34886.11737117808</v>
       </c>
       <c r="J27" t="n">
-        <v>16351.66231108145</v>
+        <v>42520.4444772292</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>-206293.6752882356</v>
+        <v>361459.8760592233</v>
       </c>
       <c r="M27" t="n">
-        <v>-206293.6752882356</v>
+        <v>361459.8760592233</v>
       </c>
       <c r="N27" t="n">
         <v>23160.51948177621</v>
       </c>
       <c r="O27" t="n">
-        <v>251000</v>
+        <v>250997</v>
       </c>
       <c r="P27" t="n">
-        <v>142000</v>
+        <v>141996.9999999999</v>
       </c>
       <c r="Q27" t="n">
-        <v>109000</v>
+        <v>109000.0000000001</v>
       </c>
       <c r="R27" t="n">
-        <v>-97293.67528823559</v>
+        <v>470459.8760592234</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -2784,10 +2782,10 @@
         <v>492.1817983394192</v>
       </c>
       <c r="X27" t="n">
-        <v>654.6017917914276</v>
+        <v>1402.250552558922</v>
       </c>
       <c r="Y27" t="n">
-        <v>654.6017917914276</v>
+        <v>1402.250552558922</v>
       </c>
       <c r="Z27" t="n">
         <v>0</v>
@@ -2798,55 +2796,55 @@
         <v>2050</v>
       </c>
       <c r="B28" t="n">
-        <v>26707.75310509024</v>
+        <v>57211.82254440402</v>
       </c>
       <c r="C28" t="n">
-        <v>2208.911910947313</v>
+        <v>4217.013648172144</v>
       </c>
       <c r="D28" t="n">
-        <v>9702.478227024638</v>
+        <v>11227.68169899033</v>
       </c>
       <c r="E28" t="n">
-        <v>600</v>
+        <v>540</v>
       </c>
       <c r="F28" t="n">
         <v>3500</v>
       </c>
       <c r="G28" t="n">
-        <v>12905.2748780656</v>
+        <v>41944.1408454137</v>
       </c>
       <c r="H28" t="n">
-        <v>1935.791231709841</v>
+        <v>6291.621126812054</v>
       </c>
       <c r="I28" t="n">
-        <v>10969.48364635576</v>
+        <v>35652.51971860164</v>
       </c>
       <c r="J28" t="n">
-        <v>16678.39555730308</v>
+        <v>43369.53336677379</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>-189615.2797309326</v>
+        <v>404829.4094259971</v>
       </c>
       <c r="M28" t="n">
-        <v>-189615.2797309326</v>
+        <v>404829.4094259971</v>
       </c>
       <c r="N28" t="n">
         <v>23160.51948177621</v>
       </c>
       <c r="O28" t="n">
-        <v>251000</v>
+        <v>250997</v>
       </c>
       <c r="P28" t="n">
-        <v>145500</v>
+        <v>145496.9999999999</v>
       </c>
       <c r="Q28" t="n">
-        <v>105500</v>
+        <v>105500.0000000001</v>
       </c>
       <c r="R28" t="n">
-        <v>-84115.27973093253</v>
+        <v>510329.4094259972</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -2864,10 +2862,10 @@
         <v>502.0254343062076</v>
       </c>
       <c r="X28" t="n">
-        <v>667.6938276272562</v>
+        <v>1430.295563610101</v>
       </c>
       <c r="Y28" t="n">
-        <v>667.6938276272562</v>
+        <v>1430.295563610101</v>
       </c>
       <c r="Z28" t="n">
         <v>0</v>
@@ -2878,55 +2876,55 @@
         <v>2051</v>
       </c>
       <c r="B29" t="n">
-        <v>27241.90816719205</v>
+        <v>58356.05899529211</v>
       </c>
       <c r="C29" t="n">
-        <v>2253.09014916626</v>
+        <v>4301.353921135586</v>
       </c>
       <c r="D29" t="n">
-        <v>9896.527791565131</v>
+        <v>11452.23533297014</v>
       </c>
       <c r="E29" t="n">
-        <v>600</v>
+        <v>540</v>
       </c>
       <c r="F29" t="n">
         <v>3500</v>
       </c>
       <c r="G29" t="n">
-        <v>13245.38037562692</v>
+        <v>42863.82366232197</v>
       </c>
       <c r="H29" t="n">
-        <v>1986.807056344038</v>
+        <v>6465.955915580493</v>
       </c>
       <c r="I29" t="n">
-        <v>11258.57331928288</v>
+        <v>36397.86774674148</v>
       </c>
       <c r="J29" t="n">
-        <v>17011.66346844914</v>
+        <v>44199.22166787706</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>-172603.6162624834</v>
+        <v>449028.6310938742</v>
       </c>
       <c r="M29" t="n">
-        <v>-172603.6162624834</v>
+        <v>449028.6310938742</v>
       </c>
       <c r="N29" t="n">
         <v>23160.51948177621</v>
       </c>
       <c r="O29" t="n">
-        <v>251000</v>
+        <v>250997</v>
       </c>
       <c r="P29" t="n">
-        <v>149000</v>
+        <v>148996.9999999999</v>
       </c>
       <c r="Q29" t="n">
-        <v>102000</v>
+        <v>102000.0000000001</v>
       </c>
       <c r="R29" t="n">
-        <v>-70603.61626248338</v>
+        <v>551028.6310938742</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -2944,10 +2942,10 @@
         <v>512.0659429923318</v>
       </c>
       <c r="X29" t="n">
-        <v>681.0477041798013</v>
+        <v>1458.901474882303</v>
       </c>
       <c r="Y29" t="n">
-        <v>681.0477041798013</v>
+        <v>1458.901474882303</v>
       </c>
       <c r="Z29" t="n">
         <v>0</v>
@@ -2958,55 +2956,55 @@
         <v>2052</v>
       </c>
       <c r="B30" t="n">
-        <v>27786.74633053589</v>
+        <v>59523.18017519795</v>
       </c>
       <c r="C30" t="n">
-        <v>2298.151952149585</v>
+        <v>4387.380999558299</v>
       </c>
       <c r="D30" t="n">
-        <v>10094.45834739643</v>
+        <v>11681.28003962954</v>
       </c>
       <c r="E30" t="n">
-        <v>600</v>
+        <v>540</v>
       </c>
       <c r="F30" t="n">
         <v>3500</v>
       </c>
       <c r="G30" t="n">
-        <v>13592.28798313946</v>
+        <v>43801.90013556842</v>
       </c>
       <c r="H30" t="n">
-        <v>2038.843197470918</v>
+        <v>6700.475033892104</v>
       </c>
       <c r="I30" t="n">
-        <v>11553.44478566854</v>
+        <v>37101.42510167632</v>
       </c>
       <c r="J30" t="n">
-        <v>17351.59673781812</v>
+        <v>44988.80610123462</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>-155252.0195246653</v>
+        <v>494017.4371951088</v>
       </c>
       <c r="M30" t="n">
-        <v>-155252.0195246653</v>
+        <v>494017.4371951088</v>
       </c>
       <c r="N30" t="n">
         <v>23160.51948177621</v>
       </c>
       <c r="O30" t="n">
-        <v>251000</v>
+        <v>250997</v>
       </c>
       <c r="P30" t="n">
-        <v>152500</v>
+        <v>152496.9999999999</v>
       </c>
       <c r="Q30" t="n">
-        <v>98500.00000000003</v>
+        <v>98500.00000000006</v>
       </c>
       <c r="R30" t="n">
-        <v>-56752.01952466526</v>
+        <v>592517.4371951089</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -3024,10 +3022,10 @@
         <v>522.3072618521784</v>
       </c>
       <c r="X30" t="n">
-        <v>694.6686582633973</v>
+        <v>1488.079504379949</v>
       </c>
       <c r="Y30" t="n">
-        <v>694.6686582633973</v>
+        <v>1488.079504379949</v>
       </c>
       <c r="Z30" t="n">
         <v>0</v>
@@ -3038,55 +3036,55 @@
         <v>2053</v>
       </c>
       <c r="B31" t="n">
-        <v>28342.48125714661</v>
+        <v>60713.64377870191</v>
       </c>
       <c r="C31" t="n">
-        <v>2344.114991192577</v>
+        <v>4475.128619549465</v>
       </c>
       <c r="D31" t="n">
-        <v>10296.34751434436</v>
+        <v>11914.90564042213</v>
       </c>
       <c r="E31" t="n">
-        <v>600</v>
+        <v>540</v>
       </c>
       <c r="F31" t="n">
         <v>3500</v>
       </c>
       <c r="G31" t="n">
-        <v>13946.13374280225</v>
+        <v>44758.73813827978</v>
       </c>
       <c r="H31" t="n">
-        <v>2091.920061420337</v>
+        <v>6939.684534569946</v>
       </c>
       <c r="I31" t="n">
-        <v>11854.21368138191</v>
+        <v>37819.05360370984</v>
       </c>
       <c r="J31" t="n">
-        <v>17698.32867257448</v>
+        <v>45794.1822232593</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>-137553.6908520908</v>
+        <v>539811.6194183681</v>
       </c>
       <c r="M31" t="n">
-        <v>-137553.6908520908</v>
+        <v>539811.6194183681</v>
       </c>
       <c r="N31" t="n">
         <v>23160.51948177621</v>
       </c>
       <c r="O31" t="n">
-        <v>251000</v>
+        <v>250997</v>
       </c>
       <c r="P31" t="n">
-        <v>156000</v>
+        <v>155996.9999999999</v>
       </c>
       <c r="Q31" t="n">
-        <v>95000.00000000003</v>
+        <v>95000.00000000006</v>
       </c>
       <c r="R31" t="n">
-        <v>-42553.69085209077</v>
+        <v>634811.6194183682</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -3104,10 +3102,10 @@
         <v>532.7534070892219</v>
       </c>
       <c r="X31" t="n">
-        <v>708.5620314286653</v>
+        <v>1517.841094467548</v>
       </c>
       <c r="Y31" t="n">
-        <v>708.5620314286653</v>
+        <v>1517.841094467548</v>
       </c>
       <c r="Z31" t="n">
         <v>0</v>
